--- a/config_11.2/act_053_xcns_config.xlsx
+++ b/config_11.2/act_053_xcns_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>line</t>
   </si>
@@ -34,9 +34,6 @@
     <t>endTime|结束时间</t>
   </si>
   <si>
-    <t>endTime_weekly</t>
-  </si>
-  <si>
     <t>gotoui|获取倍数跳转</t>
   </si>
   <si>
@@ -119,7 +116,7 @@
   </si>
   <si>
     <t>福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -136,38 +133,26 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>startTime_weekly</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1624924800,1625443200,1626048000,1626652800,1627344000,1627948800,1631548800,1633996800,1635811200</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1625500799,1626105599,1626710399,1627315199,1627919999,1630339199,1632153599,1634572799,1636387199</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +166,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF171A1D"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -259,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,30 +246,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,13 +547,11 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="71.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="74.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="66" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,182 +564,140 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1000688</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>1635811200</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>1636387199</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -800,22 +724,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -825,14 +749,14 @@
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -843,14 +767,14 @@
       <c r="B3" s="1">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -860,14 +784,14 @@
       <c r="B4" s="1">
         <v>50</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>31</v>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -877,14 +801,14 @@
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>31</v>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -895,14 +819,14 @@
       <c r="B6" s="1">
         <v>200</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -912,14 +836,14 @@
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -929,14 +853,14 @@
       <c r="B8" s="1">
         <v>800</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -946,14 +870,14 @@
       <c r="B9" s="1">
         <v>1200</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -963,14 +887,14 @@
       <c r="B10" s="1">
         <v>2000</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>20</v>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -980,14 +904,14 @@
       <c r="B11" s="1">
         <v>3000</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>31</v>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,7 +985,7 @@
       <c r="E21" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
